--- a/results.xlsx
+++ b/results.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor rgb="0071FF33"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +586,17 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>6.962</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>8.131</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-1.169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
